--- a/files/system/import-wires-loadtest-sample.xlsx
+++ b/files/system/import-wires-loadtest-sample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Crane</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t xml:space="preserve">Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passed</t>
   </si>
   <si>
     <t xml:space="preserve">Result</t>
@@ -145,7 +148,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -163,6 +166,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -250,7 +257,7 @@
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -259,8 +266,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.11"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1006" min="6" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="15.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1007" min="7" style="1" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -279,7 +286,9 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="ALS1" s="0"/>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="ALT1" s="0"/>
       <c r="ALU1" s="0"/>
       <c r="ALV1" s="0"/>
@@ -300,19 +309,22 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>40167</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="5" t="s">
         <v>8</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
